--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H2">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I2">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J2">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>189.247791671648</v>
+        <v>41.48609876946844</v>
       </c>
       <c r="R2">
-        <v>1703.230125044832</v>
+        <v>373.374888925216</v>
       </c>
       <c r="S2">
-        <v>0.105859877059225</v>
+        <v>0.07818870416656726</v>
       </c>
       <c r="T2">
-        <v>0.1282020131779943</v>
+        <v>0.09244249462694763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H3">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I3">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J3">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
-        <v>457.5629484085761</v>
+        <v>117.5055165838347</v>
       </c>
       <c r="R3">
-        <v>4118.066535677184</v>
+        <v>1057.549649254512</v>
       </c>
       <c r="S3">
-        <v>0.2559478080961142</v>
+        <v>0.2214622330522603</v>
       </c>
       <c r="T3">
-        <v>0.3099665820323881</v>
+        <v>0.2618347689378801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H4">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I4">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J4">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>102.4519188210667</v>
+        <v>37.27356386315778</v>
       </c>
       <c r="R4">
-        <v>922.0672693895999</v>
+        <v>335.46207476842</v>
       </c>
       <c r="S4">
-        <v>0.05730871380363182</v>
+        <v>0.07024935447232068</v>
       </c>
       <c r="T4">
-        <v>0.06940393930513128</v>
+        <v>0.08305580253024357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H5">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I5">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J5">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>230.7982799722081</v>
+        <v>78.91210376644599</v>
       </c>
       <c r="R5">
-        <v>1384.789679833248</v>
+        <v>473.472622598676</v>
       </c>
       <c r="S5">
-        <v>0.1291020483120323</v>
+        <v>0.1487253639066424</v>
       </c>
       <c r="T5">
-        <v>0.1042330229909828</v>
+        <v>0.1172253187582507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H6">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I6">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J6">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>115.8370226246933</v>
+        <v>34.35257268857178</v>
       </c>
       <c r="R6">
-        <v>1042.53320362224</v>
+        <v>309.1731541971459</v>
       </c>
       <c r="S6">
-        <v>0.06479596335386878</v>
+        <v>0.06474417269825278</v>
       </c>
       <c r="T6">
-        <v>0.07847140180529451</v>
+        <v>0.0765470268446216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J7">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N7">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O7">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P7">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q7">
-        <v>15.80513698121334</v>
+        <v>13.49157445496889</v>
       </c>
       <c r="R7">
-        <v>142.24623283092</v>
+        <v>121.42417009472</v>
       </c>
       <c r="S7">
-        <v>0.008840947854432018</v>
+        <v>0.02542752283512183</v>
       </c>
       <c r="T7">
-        <v>0.01070686406244114</v>
+        <v>0.03006295689534429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J8">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P8">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q8">
         <v>38.21362993589334</v>
@@ -948,10 +948,10 @@
         <v>343.9226694230401</v>
       </c>
       <c r="S8">
-        <v>0.0213756267973743</v>
+        <v>0.07202109368710173</v>
       </c>
       <c r="T8">
-        <v>0.02588703543299704</v>
+        <v>0.08515052957027533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J9">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N9">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O9">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P9">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q9">
-        <v>8.556330283444444</v>
+        <v>12.12162813515556</v>
       </c>
       <c r="R9">
-        <v>77.006972551</v>
+        <v>109.0946532164</v>
       </c>
       <c r="S9">
-        <v>0.00478616983523433</v>
+        <v>0.02284558983343904</v>
       </c>
       <c r="T9">
-        <v>0.005796309473754102</v>
+        <v>0.02701033784788274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J10">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N10">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O10">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P10">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q10">
-        <v>19.27524964898</v>
+        <v>25.66277753132</v>
       </c>
       <c r="R10">
-        <v>115.65149789388</v>
+        <v>153.97666518792</v>
       </c>
       <c r="S10">
-        <v>0.01078203100867456</v>
+        <v>0.0483665463855453</v>
       </c>
       <c r="T10">
-        <v>0.008705080211433977</v>
+        <v>0.03812250760966564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J11">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N11">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O11">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P11">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q11">
-        <v>9.674194842155556</v>
+        <v>11.17170102503556</v>
       </c>
       <c r="R11">
-        <v>87.06775357940002</v>
+        <v>100.54530922532</v>
       </c>
       <c r="S11">
-        <v>0.005411471740787565</v>
+        <v>0.02105526555624679</v>
       </c>
       <c r="T11">
-        <v>0.006553583762775913</v>
+        <v>0.02489363769101269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H12">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I12">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J12">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N12">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O12">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P12">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q12">
-        <v>103.663780761424</v>
+        <v>16.136904110912</v>
       </c>
       <c r="R12">
-        <v>621.982684568544</v>
+        <v>96.82142466547198</v>
       </c>
       <c r="S12">
-        <v>0.05798659519334741</v>
+        <v>0.03041316631634986</v>
       </c>
       <c r="T12">
-        <v>0.04681659345441758</v>
+        <v>0.02397165501722856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H13">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I13">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J13">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>59.522376</v>
       </c>
       <c r="O13">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P13">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q13">
-        <v>250.638090671488</v>
+        <v>45.70628017238399</v>
       </c>
       <c r="R13">
-        <v>1503.828544028928</v>
+        <v>274.2376810343039</v>
       </c>
       <c r="S13">
-        <v>0.1401998788491942</v>
+        <v>0.08614246518602116</v>
       </c>
       <c r="T13">
-        <v>0.1131930700286116</v>
+        <v>0.06789748348769611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H14">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I14">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J14">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N14">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O14">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P14">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q14">
-        <v>56.11982659053332</v>
+        <v>14.49834869444</v>
       </c>
       <c r="R14">
-        <v>336.7189595431999</v>
+        <v>86.99009216663998</v>
       </c>
       <c r="S14">
-        <v>0.03139184817419935</v>
+        <v>0.02732498669669031</v>
       </c>
       <c r="T14">
-        <v>0.0253448126908286</v>
+        <v>0.021537552112464</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H15">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I15">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J15">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N15">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O15">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P15">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q15">
-        <v>126.423785893704</v>
+        <v>30.69454803994799</v>
       </c>
       <c r="R15">
-        <v>505.695143574816</v>
+        <v>122.778192159792</v>
       </c>
       <c r="S15">
-        <v>0.07071790013428347</v>
+        <v>0.05784990653274509</v>
       </c>
       <c r="T15">
-        <v>0.03806363832304798</v>
+        <v>0.03039819416273389</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H16">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I16">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J16">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N16">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O16">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P16">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q16">
-        <v>63.45175080434666</v>
+        <v>13.362166795172</v>
       </c>
       <c r="R16">
-        <v>380.71050482608</v>
+        <v>80.17300077103198</v>
       </c>
       <c r="S16">
-        <v>0.03549311978760076</v>
+        <v>0.02518362867469541</v>
       </c>
       <c r="T16">
-        <v>0.0286560532479011</v>
+        <v>0.01984973390775306</v>
       </c>
     </row>
   </sheetData>
